--- a/dataset-2/2-with_data_augmentation/results/ranking.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/ranking.xlsx
@@ -34,27 +34,27 @@
     <t>SMOTE - KNeighborsClassifier</t>
   </si>
   <si>
+    <t>Borderline SMOTE - KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>ADASYN - RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>SMOTE - RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>SMOTE - MLPClassifier</t>
+  </si>
+  <si>
+    <t>Borderline SMOTE - RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Borderline SMOTE - MLPClassifier</t>
+  </si>
+  <si>
     <t>ADASYN - MLPClassifier</t>
   </si>
   <si>
-    <t>Borderline SMOTE - KNeighborsClassifier</t>
-  </si>
-  <si>
-    <t>ADASYN - RandomForestClassifier</t>
-  </si>
-  <si>
-    <t>SMOTE - MLPClassifier</t>
-  </si>
-  <si>
-    <t>Borderline SMOTE - RandomForestClassifier</t>
-  </si>
-  <si>
-    <t>SMOTE - RandomForestClassifier</t>
-  </si>
-  <si>
-    <t>Borderline SMOTE - MLPClassifier</t>
-  </si>
-  <si>
     <t>SMOTE - SVC</t>
   </si>
   <si>
@@ -73,34 +73,34 @@
     <t>Generative Adversarial Network - KNeighborsClassifier</t>
   </si>
   <si>
+    <t>Genetic Algorithm - RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm - KNeighborsClassifier</t>
+  </si>
+  <si>
     <t>Generative Adversarial Network - LogisticRegression</t>
   </si>
   <si>
-    <t>Genetic Algorithm - KNeighborsClassifier</t>
+    <t>Generative Adversarial Network - MLPClassifier</t>
   </si>
   <si>
     <t>Genetic Algorithm - MLPClassifier</t>
   </si>
   <si>
-    <t>Generative Adversarial Network - MLPClassifier</t>
-  </si>
-  <si>
-    <t>Genetic Algorithm - RandomForestClassifier</t>
-  </si>
-  <si>
     <t>Generative Adversarial Network - SVC</t>
   </si>
   <si>
     <t>Genetic Algorithm - LogisticRegression</t>
   </si>
   <si>
+    <t>Genetic Algorithm - SVC</t>
+  </si>
+  <si>
     <t>ADASYN - SVC</t>
   </si>
   <si>
     <t>Generative Adversarial Network - RandomForestClassifier</t>
-  </si>
-  <si>
-    <t>Genetic Algorithm - SVC</t>
   </si>
   <si>
     <t xml:space="preserve"> Gaussian Mixture Model - MLPClassifier</t>
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D4">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +543,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C5">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="D5">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B6">
+        <v>0.73</v>
+      </c>
+      <c r="C6">
+        <v>0.91</v>
+      </c>
+      <c r="D6">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.83</v>
-      </c>
-      <c r="D6">
-        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C7">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,13 +596,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="C9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="D9">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,13 +610,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="C10">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="D10">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -711,10 +711,10 @@
         <v>0.33</v>
       </c>
       <c r="C17">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="D17">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -722,13 +722,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="C18">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="D18">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -736,13 +736,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="C19">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="D19">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -764,10 +764,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="C21">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="D21">
         <v>0.4</v>
@@ -795,7 +795,7 @@
         <v>0.26</v>
       </c>
       <c r="C23">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="D23">
         <v>0.39</v>
@@ -806,13 +806,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="C24">
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
       <c r="D24">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -820,10 +820,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="C25">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="D25">
         <v>0.38</v>
@@ -834,13 +834,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="C26">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="D26">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="27" spans="1:4">
